--- a/team6Scrum.xlsx
+++ b/team6Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hameenamk-my.sharepoint.com/personal/basil20001_student_hamk_fi/Documents/Tietojenkäsittely/2022/Software-development -tools(Deepak)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{D1D05418-55E5-4D84-A1D1-30F7030FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E1A83E-7796-48BB-919E-126831614099}"/>
+  <xr:revisionPtr revIDLastSave="661" documentId="13_ncr:1_{D1D05418-55E5-4D84-A1D1-30F7030FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3A740BF-8257-40C8-8231-891D700C3CC4}"/>
   <bookViews>
-    <workbookView xWindow="28428" yWindow="600" windowWidth="21600" windowHeight="11508" tabRatio="557" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="654" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="152">
   <si>
     <t xml:space="preserve">Election Machine </t>
   </si>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">As a candidate, I am able to register and become a registerd candidate. </t>
   </si>
   <si>
-    <t>As a registered candidate, I am able to login and answer questions, and are able to edit and delete my answer/s.</t>
+    <t>As a registered candidate, I am able to login and answer questions, and are able to edit my answer/s and info.</t>
   </si>
   <si>
     <t>As a registered candidate, I am able to see a list of other registered candidates and their answers.</t>
@@ -166,6 +166,9 @@
     <t xml:space="preserve">Create a candidate page  </t>
   </si>
   <si>
+    <t>As a registered candidate, I am able to login and answer questions, and are able to edit  my answer/s and info.</t>
+  </si>
+  <si>
     <t>Questioned answered are updated to the candidates db</t>
   </si>
   <si>
@@ -238,10 +241,10 @@
     <t>Sprint 2 Week 14</t>
   </si>
   <si>
-    <t xml:space="preserve">Online </t>
-  </si>
-  <si>
-    <t>4.4.2022 - 10.4.2022</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: 4.4.2022 </t>
   </si>
   <si>
     <t>Sprint 3 Week 15</t>
@@ -271,6 +274,180 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>DAY 1 points</t>
+  </si>
+  <si>
+    <t>DAY 2 points</t>
+  </si>
+  <si>
+    <t>DAY 3 points</t>
+  </si>
+  <si>
+    <t>DAY 4 points</t>
+  </si>
+  <si>
+    <t>DAY 5 points</t>
+  </si>
+  <si>
+    <t>Create GitHub repository</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure we all have the same MySQL version </t>
+  </si>
+  <si>
+    <t>Make sure our environment works properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story#1: As a candidate, I am able to register and become a registerd candidate. </t>
+  </si>
+  <si>
+    <t>Create HTML front page, creat links to nominees registiration pages</t>
+  </si>
+  <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceate cnadidate registration form </t>
+  </si>
+  <si>
+    <t>Create a table for candidates in the DB with encrypted password features in the DB (salt)(local machine)</t>
+  </si>
+  <si>
+    <t>Connect candidate registration form to database table using dao.java (create dao)</t>
+  </si>
+  <si>
+    <t>Create securityUtils.java  that hashes the password and creats random slat</t>
+  </si>
+  <si>
+    <t>Create RegisterCandidateApp.java servlet that uses dao function to insert data into the database</t>
+  </si>
+  <si>
+    <t>If fields are empty, username taken warn user. If registration is successful notify user (on registration page)</t>
+  </si>
+  <si>
+    <t>User Story#2: As an candidate, I am able to log in.</t>
+  </si>
+  <si>
+    <t>Create a candidate login page</t>
+  </si>
+  <si>
+    <t>The login page esablishes a connection with the db and checks if the credentials are available in the db (dao)</t>
+  </si>
+  <si>
+    <t>Create LoginApp.java servlet that uses dao function to check credentials form the db</t>
+  </si>
+  <si>
+    <t>User Story#3: As an admin, I am able to log in.</t>
+  </si>
+  <si>
+    <t>Create admin log in page/admin page</t>
+  </si>
+  <si>
+    <t>Nori/Jesse</t>
+  </si>
+  <si>
+    <t>Create a table for admin in the DB with encrypted password features in the DB (salt)(local machine)</t>
+  </si>
+  <si>
+    <t>Nori/jesse</t>
+  </si>
+  <si>
+    <t>The login page esablishes a connection with the db and checks if the credentials are available in the db  (dao)</t>
+  </si>
+  <si>
+    <t>User Story#4: As an dmin,  I am  able to add, edit and remove registered candidates.</t>
+  </si>
+  <si>
+    <t>Design an admin page UI example (admin.jsp that include edit and delete forms)</t>
+  </si>
+  <si>
+    <t>Create admin table</t>
+  </si>
+  <si>
+    <t>Able to edit, select, inseret and drop the candidate table info</t>
+  </si>
+  <si>
+    <t>Create Candidate class</t>
+  </si>
+  <si>
+    <t>Create editCand function dao (dao branch)</t>
+  </si>
+  <si>
+    <t>Create adminDeleteCand function dao (dao branch)</t>
+  </si>
+  <si>
+    <t>Create showCandInfo function dao (dao branch)</t>
+  </si>
+  <si>
+    <t>Create showAllCand function dao (dao branch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create adminCandEdit.jsp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create adminShowAllCand.jsp </t>
+  </si>
+  <si>
+    <t>Create dao finction to check admin credentials from admin table</t>
+  </si>
+  <si>
+    <t>create adminLogin.java servlet</t>
+  </si>
+  <si>
+    <t>Create adminDelete.jsp</t>
+  </si>
+  <si>
+    <t>Create AdminShowCand.java servlet that uses a dao function to show items from the database table (servlet branch)</t>
+  </si>
+  <si>
+    <t>Create AdminDeleteCand.java servlet  that uses a dao function to delete items in the database table (servlet branch)</t>
+  </si>
+  <si>
+    <t>Create EditCand.java servlet  that uses a dao function to edit and update table info in the database (servlet branch) adding a link to AdminShowCand.java is still needed</t>
+  </si>
+  <si>
+    <t>Move the candidate registration to the admin page</t>
+  </si>
+  <si>
+    <t>Admin page and all the edit delete functions can be accessed only over login (cookiesession) and logout servlet needed to remove cocckies</t>
+  </si>
+  <si>
+    <t>User Story#5: As a registered candidate, I am able to answer questions, and are able to edit my answer/s and info.</t>
+  </si>
+  <si>
+    <t>Create candidate page (html)</t>
+  </si>
+  <si>
+    <t>UnDone</t>
+  </si>
+  <si>
+    <t>Use EditCand function dao</t>
+  </si>
+  <si>
+    <t>Use ShowCandInfo function dao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create candShowData.jsp </t>
+  </si>
+  <si>
+    <t>Create candEdit.jsp</t>
+  </si>
+  <si>
+    <t>Use EditCandApp.java servelte</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Sprint Backlog : Sprint 2 04.4.2022 - 08.4.2022</t>
+  </si>
+  <si>
     <t>DAY 1</t>
   </si>
   <si>
@@ -286,119 +463,44 @@
     <t>DAY 5</t>
   </si>
   <si>
-    <t>Create GitHub repository</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make sure we all have the same MySQL version </t>
-  </si>
-  <si>
-    <t>Make sure our environment works properly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story#1: As a nominee, I am able to register and become a registerd candidate. </t>
-  </si>
-  <si>
-    <t>Create HTML front page, creat links to nominees registiration pages</t>
-  </si>
-  <si>
-    <t>Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceate cnadidate registration form </t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Connect candidate registration form to database table using dao.java</t>
-  </si>
-  <si>
-    <t>Create candidte table  in the databae with hashedpassword and salt coulmns</t>
-  </si>
-  <si>
-    <t>Create RegisterCandidateApp.java servlet that uses dao function to insert data into the database</t>
-  </si>
-  <si>
-    <t>Inprogress</t>
-  </si>
-  <si>
-    <t>User Story#2: As an candidate, I am able to log in.</t>
-  </si>
-  <si>
-    <t>Create a login page</t>
-  </si>
-  <si>
-    <t>Create a table for candidates in the DB with encrypted password features in the DB (salt)</t>
-  </si>
-  <si>
-    <t>The login page esablishes a connection with the db and checks if the credentials are available in the db (dao)</t>
-  </si>
-  <si>
-    <t>User Story#3: As an admin, I am able to log in.</t>
-  </si>
-  <si>
-    <t>The login page esablishes a connection with the db and checks if the credentials are available in the db  (dao)</t>
-  </si>
-  <si>
-    <t>User Story#4: As an dmin,  I am  able to add, edit and remove registered candidates.</t>
-  </si>
-  <si>
-    <t>Able to edit, select, inseret and drop the table info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story#5: </t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database design </t>
-  </si>
-  <si>
-    <t>Dao.java</t>
-  </si>
-  <si>
-    <t>SecurityUtils.Java</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Sprint Backlog : Sprint 1</t>
-  </si>
-  <si>
-    <t>User Story #1</t>
-  </si>
-  <si>
-    <t>User Story #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task </t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>User Story #3</t>
-  </si>
-  <si>
-    <t>User Story #4</t>
-  </si>
-  <si>
-    <t>User Story #5</t>
+    <t>User Story #5: As a registered candidate, I am able to answer questions, and are able to edit my answer/s and info.</t>
+  </si>
+  <si>
+    <t>Create showCand.jsp</t>
+  </si>
+  <si>
+    <t>Create EditCandApp.java servlet</t>
+  </si>
+  <si>
+    <t>Create ShowCand.java</t>
+  </si>
+  <si>
+    <t>Create candidateLogout</t>
+  </si>
+  <si>
+    <t>User Story #6:</t>
+  </si>
+  <si>
+    <t>User Story #7:</t>
+  </si>
+  <si>
+    <t>User Story #8:</t>
+  </si>
+  <si>
+    <t>Create readCandidatesInfo function dao</t>
+  </si>
+  <si>
+    <t>Create EditCandForCand.jsp</t>
+  </si>
+  <si>
+    <t>Database handeling pool(create Connectins class, add propertties to appengine-web.xml, update constructer in dao)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -623,8 +725,13 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +801,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD6DCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +970,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -914,25 +1033,7 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -960,18 +1061,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -980,18 +1072,80 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 2 2" xfId="6" xr:uid="{A75B60AD-6CE9-48D0-9820-00C76EF07ABF}"/>
   </cellStyles>
@@ -1089,13 +1243,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1105,6 +1252,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1187,13 +1341,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1203,6 +1350,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1830,8 +1984,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10417547" y="439829"/>
-          <a:ext cx="6047816" cy="2444567"/>
+          <a:off x="11647393" y="441510"/>
+          <a:ext cx="5968254" cy="2411510"/>
           <a:chOff x="7360022" y="3922058"/>
           <a:chExt cx="6042213" cy="2586321"/>
         </a:xfrm>
@@ -2913,7 +3067,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF57D4BB-A86B-4620-A6B0-2E17624EEBA0}" name="Table1" displayName="Table1" ref="A2:C66" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF57D4BB-A86B-4620-A6B0-2E17624EEBA0}" name="Table1" displayName="Table1" ref="A2:C66" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A2:C66" xr:uid="{32FA3138-EC93-4A01-9A93-BB704ABA4916}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2929,8 +3083,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{147F55CD-D74D-4CC8-9C93-3228BDE8794D}" name="Table2" displayName="Table2" ref="C3:D86" totalsRowShown="0">
-  <autoFilter ref="C3:D86" xr:uid="{147F55CD-D74D-4CC8-9C93-3228BDE8794D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{147F55CD-D74D-4CC8-9C93-3228BDE8794D}" name="Table2" displayName="Table2" ref="C3:D82" totalsRowShown="0">
+  <autoFilter ref="C3:D82" xr:uid="{147F55CD-D74D-4CC8-9C93-3228BDE8794D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -2943,8 +3097,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C512109C-ACAC-4EEA-BC4D-1517B8504013}" name="Table3" displayName="Table3" ref="A2:D16" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A2:D16" xr:uid="{C512109C-ACAC-4EEA-BC4D-1517B8504013}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C512109C-ACAC-4EEA-BC4D-1517B8504013}" name="Table3" displayName="Table3" ref="A2:D18" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A2:D18" xr:uid="{C512109C-ACAC-4EEA-BC4D-1517B8504013}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3288,7 +3442,7 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3300,12 +3454,12 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="31.5">
+    <row r="2" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="31" t="s">
@@ -3316,7 +3470,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="2:8" ht="31.5">
+    <row r="3" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
@@ -3327,7 +3481,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="2:8" ht="31.5">
+    <row r="4" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
@@ -3338,16 +3492,16 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="6" spans="2:8" ht="23.25">
-      <c r="C6" s="38" t="s">
+    <row r="6" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="2:8" ht="23.25">
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+    </row>
+    <row r="7" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
         <v>4</v>
@@ -3356,7 +3510,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="2:8" ht="23.25">
+    <row r="8" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
         <v>5</v>
@@ -3365,7 +3519,7 @@
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="2:8" ht="23.25">
+    <row r="9" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
         <v>6</v>
@@ -3374,7 +3528,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="2:8" ht="23.25">
+    <row r="10" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
         <v>7</v>
@@ -3383,7 +3537,7 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="2:8" ht="23.25">
+    <row r="11" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
         <v>8</v>
@@ -3406,27 +3560,27 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.875" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="22.75" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="112.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:4" ht="23.25">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3437,7 +3591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3448,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3459,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
@@ -3470,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
@@ -3481,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -3492,7 +3646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -3503,7 +3657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
@@ -3514,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3525,7 +3679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3536,7 +3690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
@@ -3547,7 +3701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3558,62 +3712,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="17.25" customHeight="1">
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="17.25" customHeight="1">
+    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="17.25" customHeight="1">
+    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="I17" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25" customHeight="1">
+    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25" customHeight="1">
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="I19" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="I20" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="I21" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-    </row>
-    <row r="24" spans="1:12" ht="21">
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+    </row>
+    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="H24" s="18"/>
@@ -3622,171 +3776,171 @@
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
     </row>
@@ -3818,29 +3972,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62CD205-9E86-46AF-9920-145C3DB823CA}">
-  <dimension ref="C1:D55"/>
+  <dimension ref="C1:D51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="96.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4">
-      <c r="C1" s="41" t="s">
+    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="41"/>
-    </row>
-    <row r="2" spans="3:4">
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="3:4" ht="26.25">
+      <c r="D1" s="75"/>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+    </row>
+    <row r="3" spans="3:4" ht="25.8" x14ac:dyDescent="0.3">
       <c r="C3" s="20" t="s">
         <v>29</v>
       </c>
@@ -3848,17 +4002,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" s="33"/>
       <c r="D5" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="33" t="s">
         <v>13</v>
       </c>
@@ -3866,27 +4020,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="33"/>
       <c r="D7" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="34"/>
       <c r="D10" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="34" t="s">
         <v>14</v>
       </c>
@@ -3894,27 +4048,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="34"/>
       <c r="D12" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" s="32" t="s">
         <v>15</v>
       </c>
@@ -3922,209 +4076,193 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="22" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="34"/>
-      <c r="D23" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="32"/>
-      <c r="D27" s="32" t="s">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="32" t="s">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="32"/>
-      <c r="D29" s="32" t="s">
+      <c r="D24" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="32"/>
-      <c r="D30" s="32" t="s">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="32"/>
+      <c r="D26" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="3:4">
-      <c r="C32" s="33"/>
-      <c r="D32" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="33"/>
-      <c r="D34" s="33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="34"/>
+      <c r="D32" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
     </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="34"/>
-      <c r="D36" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-    </row>
-    <row r="39" spans="3:4">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="32"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
     </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="32"/>
-      <c r="D40" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-    </row>
-    <row r="43" spans="3:4">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="33"/>
+      <c r="D40" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="3:4">
-      <c r="C44" s="33"/>
-      <c r="D44" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-    </row>
-    <row r="47" spans="3:4">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="34"/>
+      <c r="D44" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="34"/>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
     </row>
-    <row r="48" spans="3:4">
-      <c r="C48" s="34"/>
-      <c r="D48" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-    </row>
-    <row r="51" spans="3:4">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="32"/>
+      <c r="D48" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="32"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="32"/>
-      <c r="D52" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="32"/>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4139,163 +4277,181 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEC472C-4832-45AF-A950-04969A0E3C90}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="24.09765625" customWidth="1"/>
+    <col min="2" max="2" width="29.09765625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="26.69921875" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4308,931 +4464,1474 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6088DA-74CF-4F3C-ACDE-C67EABB84574}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="16.5" style="43" customWidth="1"/>
-    <col min="10" max="10" width="9" style="43" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="149.19921875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="16.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="9" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.5">
-      <c r="A1" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="49" t="s">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="E2" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="G2" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-    </row>
-    <row r="3" spans="1:19" s="48" customFormat="1">
-      <c r="A3" s="36" t="s">
+      <c r="I2" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+    </row>
+    <row r="3" spans="1:19" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="45"/>
       <c r="C3" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+    </row>
+    <row r="4" spans="1:19" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-    </row>
-    <row r="4" spans="1:19" s="48" customFormat="1">
-      <c r="A4" s="36" t="s">
+      <c r="D4" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+    </row>
+    <row r="5" spans="1:19" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-    </row>
-    <row r="5" spans="1:19" s="48" customFormat="1">
-      <c r="A5" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="36" t="s">
-        <v>83</v>
-      </c>
       <c r="D5" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-    </row>
-    <row r="6" spans="1:19">
+        <v>85</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="37"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5">
-      <c r="A7" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="53">
-        <v>2</v>
-      </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-    </row>
-    <row r="8" spans="1:19" ht="16.5">
-      <c r="A8" s="64" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="53" t="s">
+      <c r="D7" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="53">
-        <v>2</v>
-      </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-    </row>
-    <row r="9" spans="1:19" ht="16.5">
-      <c r="A9" s="53" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="53">
+      <c r="B9" s="48"/>
+      <c r="C9" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+    </row>
+    <row r="10" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+    </row>
+    <row r="11" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+    </row>
+    <row r="12" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+    </row>
+    <row r="13" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="37">
         <v>6</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-    </row>
-    <row r="10" spans="1:19" ht="16.5">
-      <c r="A10" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="53">
-        <v>2</v>
-      </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="37">
+      <c r="C14" s="37"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+    </row>
+    <row r="16" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="37">
         <v>6</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A16" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="37">
+      <c r="C19" s="37"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+    </row>
+    <row r="22" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+    </row>
+    <row r="23" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="37">
         <v>6</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A17" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A18" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A19" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A20" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A21" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A22" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A23" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A24" s="61"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A25" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A30" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A31" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A32" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A33" s="53" t="s">
+      <c r="C24" s="37"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-    </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A35" s="63" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63">
-        <f>SUM(E7:E34)</f>
-        <v>12</v>
-      </c>
-      <c r="F35" s="63">
-        <f>SUM(F6:F34)</f>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="51"/>
+      <c r="C37" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="51"/>
+      <c r="C38" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="51"/>
+      <c r="C39" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="51"/>
+      <c r="C42" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="37">
+        <v>6</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="47"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="47"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="47"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="47"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+    </row>
+    <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="47"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+    </row>
+    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+    </row>
+    <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+    </row>
+    <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="54">
+        <f>SUM(B3:B54)</f>
+        <v>29</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54">
+        <f>SUM(E7:E54)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="63">
-        <f>SUM(G6:G34)</f>
+      <c r="F55" s="54">
+        <f>SUM(F6:F54)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="63">
-        <f>SUM(H6:H34)</f>
+      <c r="G55" s="54">
+        <f>SUM(G6:G54)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="63">
-        <f>SUM(I6:I34)</f>
+      <c r="H55" s="54">
+        <f>SUM(H6:H54)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
+      <c r="I55" s="54">
+        <f>SUM(I6:I54)</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5245,70 +5944,68 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B586DF3-05CE-45CD-BBBF-F44EAB136942}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.875" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="105.5" customWidth="1"/>
+    <col min="2" max="9" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.5">
-      <c r="A1" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-    </row>
-    <row r="2" spans="1:19" ht="25.5">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+    </row>
+    <row r="2" spans="1:19" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -5321,11 +6018,13 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="B3" s="11">
+        <v>6</v>
+      </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -5344,11 +6043,15 @@
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
+        <v>129</v>
+      </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="47"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -5365,11 +6068,17 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="70" t="s">
+        <v>149</v>
+      </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>85</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -5386,11 +6095,17 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="71" t="s">
+        <v>142</v>
+      </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>85</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -5407,11 +6122,17 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="67" t="s">
+        <v>143</v>
+      </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>85</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -5428,18 +6149,17 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+    <row r="8" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="13"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -5451,13 +6171,17 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="13" t="s">
-        <v>113</v>
+    <row r="9" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
+        <v>144</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>85</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -5474,13 +6198,17 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="13" t="s">
-        <v>114</v>
+    <row r="10" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="68" t="s">
+        <v>145</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -5497,13 +6225,17 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="13" t="s">
-        <v>113</v>
+    <row r="11" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
+        <v>151</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -5520,10 +6252,8 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="13" t="s">
-        <v>113</v>
-      </c>
+    <row r="12" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="66"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -5543,18 +6273,16 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+    <row r="13" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -5566,10 +6294,8 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="13" t="s">
-        <v>114</v>
-      </c>
+    <row r="14" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="66"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -5589,18 +6315,18 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+    <row r="15" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -5612,10 +6338,8 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="13" t="s">
-        <v>113</v>
-      </c>
+    <row r="16" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -5635,10 +6359,8 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="13" t="s">
-        <v>114</v>
-      </c>
+    <row r="17" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -5658,18 +6380,16 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+    <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -5681,10 +6401,8 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="13" t="s">
-        <v>113</v>
-      </c>
+    <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -5704,10 +6422,8 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="13" t="s">
-        <v>113</v>
-      </c>
+    <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -5727,10 +6443,8 @@
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="13" t="s">
-        <v>113</v>
-      </c>
+    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -5750,10 +6464,8 @@
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="13" t="s">
-        <v>113</v>
-      </c>
+    <row r="22" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -5773,9 +6485,9 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -5796,10 +6508,8 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="13" t="s">
-        <v>113</v>
-      </c>
+    <row r="24" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -5819,10 +6529,8 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="13" t="s">
-        <v>114</v>
-      </c>
+    <row r="25" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -5842,10 +6550,8 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="13" t="s">
-        <v>114</v>
-      </c>
+    <row r="26" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -5865,10 +6571,8 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="13" t="s">
-        <v>114</v>
-      </c>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -5888,33 +6592,16 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9">
-        <f>SUM(E4:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="9">
-        <f>SUM(F3:F27)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <f>SUM(G3:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <f>SUM(H3:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="9">
-        <f>SUM(I3:I27)</f>
-        <v>0</v>
-      </c>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -5926,10 +6613,261 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9">
+        <f>SUM(E4:E38)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="9">
+        <f>SUM(F3:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
+        <f>SUM(G3:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <f>SUM(H3:H38)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
+        <f>SUM(I3:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/team6Scrum.xlsx
+++ b/team6Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hameenamk-my.sharepoint.com/personal/basil20001_student_hamk_fi/Documents/Tietojenkäsittely/2022/Software-development -tools(Deepak)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="661" documentId="13_ncr:1_{D1D05418-55E5-4D84-A1D1-30F7030FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3A740BF-8257-40C8-8231-891D700C3CC4}"/>
+  <xr:revisionPtr revIDLastSave="672" documentId="13_ncr:1_{D1D05418-55E5-4D84-A1D1-30F7030FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64A71A86-C6B9-4102-86C4-30650274BB03}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="654" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="654" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="154">
   <si>
     <t xml:space="preserve">Election Machine </t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>Database handeling pool(create Connectins class, add propertties to appengine-web.xml, update constructer in dao)</t>
+  </si>
+  <si>
+    <t>Updating hashed password and salt (while maintaining the encryption)</t>
+  </si>
+  <si>
+    <t>Sessions and cookies for admins and candidates</t>
   </si>
 </sst>
 </file>
@@ -1984,8 +1990,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11647393" y="441510"/>
-          <a:ext cx="5968254" cy="2411510"/>
+          <a:off x="11651875" y="437028"/>
+          <a:ext cx="6042213" cy="2474262"/>
           <a:chOff x="7360022" y="3922058"/>
           <a:chExt cx="6042213" cy="2586321"/>
         </a:xfrm>
@@ -3442,7 +3448,7 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3457,9 +3463,9 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="31" t="s">
@@ -3470,7 +3476,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
@@ -3481,7 +3487,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
@@ -3492,7 +3498,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="6" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C6" s="72" t="s">
         <v>3</v>
       </c>
@@ -3501,7 +3507,7 @@
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
     </row>
-    <row r="7" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
         <v>4</v>
@@ -3510,7 +3516,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
         <v>5</v>
@@ -3519,7 +3525,7 @@
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
         <v>6</v>
@@ -3528,7 +3534,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
         <v>7</v>
@@ -3537,7 +3543,7 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
         <v>8</v>
@@ -3563,16 +3569,16 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="112.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" customWidth="1"/>
-    <col min="4" max="4" width="22.69921875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="112.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="22.75" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="74" t="s">
         <v>9</v>
       </c>
@@ -3580,7 +3586,7 @@
       <c r="C1" s="74"/>
       <c r="D1" s="74"/>
     </row>
-    <row r="2" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3591,7 +3597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3602,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3613,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
@@ -3624,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
@@ -3635,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -3657,7 +3663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3690,7 +3696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
@@ -3701,7 +3707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3712,62 +3718,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="I17" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="I19" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="I20" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="I21" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
     </row>
-    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="H24" s="18"/>
@@ -3776,171 +3782,171 @@
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
     </row>
@@ -3978,23 +3984,23 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="112.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1" s="75" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="75"/>
     </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
     </row>
-    <row r="3" spans="3:4" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
         <v>29</v>
       </c>
@@ -4002,17 +4008,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="33"/>
       <c r="D5" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="33" t="s">
         <v>13</v>
       </c>
@@ -4020,27 +4026,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="33"/>
       <c r="D7" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="34"/>
       <c r="D10" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="34" t="s">
         <v>14</v>
       </c>
@@ -4048,27 +4054,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="34"/>
       <c r="D12" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="32" t="s">
         <v>15</v>
       </c>
@@ -4076,21 +4082,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="34"/>
       <c r="D19" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="34" t="s">
         <v>16</v>
       </c>
@@ -4098,21 +4104,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
@@ -4120,29 +4126,29 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="33"/>
       <c r="D28" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="33" t="s">
         <v>18</v>
       </c>
@@ -4150,23 +4156,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="33"/>
       <c r="D30" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="34"/>
       <c r="D32" s="34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="34" t="s">
         <v>19</v>
       </c>
@@ -4174,41 +4180,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="32"/>
       <c r="D36" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="32"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="33"/>
       <c r="D40" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="33" t="s">
         <v>21</v>
       </c>
@@ -4216,51 +4222,51 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="34"/>
       <c r="D44" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="34"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="32"/>
       <c r="D48" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="32"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
     </row>
@@ -4283,16 +4289,16 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.09765625" customWidth="1"/>
-    <col min="2" max="2" width="29.09765625" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="26.69921875" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
@@ -4300,7 +4306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
@@ -4314,7 +4320,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>62</v>
       </c>
@@ -4331,7 +4337,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>65</v>
       </c>
@@ -4339,7 +4345,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>66</v>
       </c>
@@ -4347,7 +4353,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>62</v>
       </c>
@@ -4361,7 +4367,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>68</v>
       </c>
@@ -4369,7 +4375,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>69</v>
       </c>
@@ -4377,7 +4383,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>62</v>
       </c>
@@ -4385,7 +4391,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>70</v>
       </c>
@@ -4393,7 +4399,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>71</v>
       </c>
@@ -4401,7 +4407,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
@@ -4409,7 +4415,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>70</v>
       </c>
@@ -4417,7 +4423,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -4425,7 +4431,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>62</v>
       </c>
@@ -4433,7 +4439,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>70</v>
       </c>
@@ -4441,13 +4447,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4466,19 +4472,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6088DA-74CF-4F3C-ACDE-C67EABB84574}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="149.19921875" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="149.25" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="16.5" style="38" customWidth="1"/>
     <col min="10" max="10" width="9" style="38" customWidth="1"/>
     <col min="11" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="76" t="s">
         <v>73</v>
       </c>
@@ -4501,7 +4507,7 @@
       <c r="R1" s="77"/>
       <c r="S1" s="77"/>
     </row>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>74</v>
       </c>
@@ -4540,7 +4546,7 @@
       <c r="R2" s="39"/>
       <c r="S2" s="39"/>
     </row>
-    <row r="3" spans="1:19" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>83</v>
       </c>
@@ -4567,7 +4573,7 @@
       <c r="R3" s="40"/>
       <c r="S3" s="40"/>
     </row>
-    <row r="4" spans="1:19" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>86</v>
       </c>
@@ -4594,7 +4600,7 @@
       <c r="R4" s="40"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>87</v>
       </c>
@@ -4621,7 +4627,7 @@
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>88</v>
       </c>
@@ -4646,7 +4652,7 @@
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
     </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>89</v>
       </c>
@@ -4673,7 +4679,7 @@
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>91</v>
       </c>
@@ -4700,7 +4706,7 @@
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
     </row>
-    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>92</v>
       </c>
@@ -4727,7 +4733,7 @@
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
     </row>
-    <row r="10" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>93</v>
       </c>
@@ -4754,7 +4760,7 @@
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
     </row>
-    <row r="11" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>94</v>
       </c>
@@ -4781,7 +4787,7 @@
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
     </row>
-    <row r="12" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>95</v>
       </c>
@@ -4808,7 +4814,7 @@
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
     </row>
-    <row r="13" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
         <v>96</v>
       </c>
@@ -4835,7 +4841,7 @@
       <c r="R13" s="39"/>
       <c r="S13" s="39"/>
     </row>
-    <row r="14" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>97</v>
       </c>
@@ -4860,7 +4866,7 @@
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
     </row>
-    <row r="15" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>98</v>
       </c>
@@ -4887,7 +4893,7 @@
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
     </row>
-    <row r="16" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>92</v>
       </c>
@@ -4914,7 +4920,7 @@
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
     </row>
-    <row r="17" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>99</v>
       </c>
@@ -4941,7 +4947,7 @@
       <c r="R17" s="39"/>
       <c r="S17" s="39"/>
     </row>
-    <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
         <v>100</v>
       </c>
@@ -4968,7 +4974,7 @@
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
     </row>
-    <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>101</v>
       </c>
@@ -4993,7 +4999,7 @@
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
     </row>
-    <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>102</v>
       </c>
@@ -5020,7 +5026,7 @@
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
     </row>
-    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>104</v>
       </c>
@@ -5047,7 +5053,7 @@
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
     </row>
-    <row r="22" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
         <v>33</v>
       </c>
@@ -5074,7 +5080,7 @@
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
     </row>
-    <row r="23" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="s">
         <v>106</v>
       </c>
@@ -5101,7 +5107,7 @@
       <c r="R23" s="39"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>107</v>
       </c>
@@ -5126,7 +5132,7 @@
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>108</v>
       </c>
@@ -5153,7 +5159,7 @@
       <c r="R25" s="39"/>
       <c r="S25" s="39"/>
     </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
         <v>109</v>
       </c>
@@ -5180,7 +5186,7 @@
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>110</v>
       </c>
@@ -5207,7 +5213,7 @@
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
     </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>111</v>
       </c>
@@ -5234,7 +5240,7 @@
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>112</v>
       </c>
@@ -5261,7 +5267,7 @@
       <c r="R29" s="39"/>
       <c r="S29" s="39"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>113</v>
       </c>
@@ -5288,7 +5294,7 @@
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>114</v>
       </c>
@@ -5315,7 +5321,7 @@
       <c r="R31" s="39"/>
       <c r="S31" s="39"/>
     </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>115</v>
       </c>
@@ -5342,7 +5348,7 @@
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
     </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>116</v>
       </c>
@@ -5369,7 +5375,7 @@
       <c r="R33" s="39"/>
       <c r="S33" s="39"/>
     </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>117</v>
       </c>
@@ -5396,7 +5402,7 @@
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
     </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>118</v>
       </c>
@@ -5423,7 +5429,7 @@
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>119</v>
       </c>
@@ -5450,7 +5456,7 @@
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
     </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>120</v>
       </c>
@@ -5477,7 +5483,7 @@
       <c r="R37" s="39"/>
       <c r="S37" s="39"/>
     </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>121</v>
       </c>
@@ -5504,7 +5510,7 @@
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>122</v>
       </c>
@@ -5946,17 +5952,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B586DF3-05CE-45CD-BBBF-F44EAB136942}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105.5" customWidth="1"/>
-    <col min="2" max="9" width="11.19921875" customWidth="1"/>
+    <col min="2" max="9" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="78" t="s">
         <v>135</v>
       </c>
@@ -5979,7 +5985,7 @@
       <c r="R1" s="79"/>
       <c r="S1" s="79"/>
     </row>
-    <row r="2" spans="1:19" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>74</v>
       </c>
@@ -6018,7 +6024,7 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>141</v>
       </c>
@@ -6043,7 +6049,7 @@
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>129</v>
       </c>
@@ -6068,7 +6074,7 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>149</v>
       </c>
@@ -6095,7 +6101,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>142</v>
       </c>
@@ -6122,7 +6128,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>143</v>
       </c>
@@ -6149,7 +6155,7 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>150</v>
       </c>
@@ -6171,7 +6177,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>144</v>
       </c>
@@ -6198,7 +6204,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68" t="s">
         <v>145</v>
       </c>
@@ -6225,7 +6231,7 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
         <v>151</v>
       </c>
@@ -6252,11 +6258,17 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
+    <row r="12" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="68" t="s">
+        <v>152</v>
+      </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -6273,11 +6285,17 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+    <row r="13" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
+        <v>153</v>
+      </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -6294,7 +6312,7 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -6315,7 +6333,7 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>146</v>
       </c>
@@ -6338,7 +6356,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -6359,7 +6377,7 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -6380,7 +6398,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -6401,7 +6419,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -6422,7 +6440,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -6443,7 +6461,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -6464,7 +6482,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -6485,7 +6503,7 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>147</v>
       </c>
@@ -6508,7 +6526,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -6529,7 +6547,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -6550,7 +6568,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -6571,7 +6589,7 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -6592,7 +6610,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -6613,7 +6631,7 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -6634,7 +6652,7 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -6655,7 +6673,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>148</v>
       </c>
@@ -6678,7 +6696,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -6699,7 +6717,7 @@
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -6720,7 +6738,7 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -6741,7 +6759,7 @@
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -6762,7 +6780,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -6783,7 +6801,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -6804,7 +6822,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -6825,7 +6843,7 @@
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>134</v>
       </c>

--- a/team6Scrum.xlsx
+++ b/team6Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hameenamk-my.sharepoint.com/personal/basil20001_student_hamk_fi/Documents/Tietojenkäsittely/2022/Software-development -tools(Deepak)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyDevice\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="672" documentId="13_ncr:1_{D1D05418-55E5-4D84-A1D1-30F7030FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64A71A86-C6B9-4102-86C4-30650274BB03}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFB5D00-5B16-4383-ADE2-85B692247430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="654" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="663" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="sprint_planning_meetings" sheetId="6" r:id="rId5"/>
     <sheet name="sprint_backlog_sprint1" sheetId="14" r:id="rId6"/>
     <sheet name="sprint_backlog_sprint2" sheetId="11" r:id="rId7"/>
+    <sheet name="sprint_backlog_sprint3" sheetId="17" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="164">
   <si>
     <t xml:space="preserve">Election Machine </t>
   </si>
@@ -247,18 +248,9 @@
     <t xml:space="preserve">Date: 4.4.2022 </t>
   </si>
   <si>
-    <t>Sprint 3 Week 15</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Sprint 4 Week 16</t>
-  </si>
-  <si>
-    <t>Sprint 5 Week 17</t>
-  </si>
-  <si>
     <t>Sprint Backlog : Sprint 1 30.3.2022 - 03.4.2022</t>
   </si>
   <si>
@@ -500,6 +492,45 @@
   </si>
   <si>
     <t>Sessions and cookies for admins and candidates</t>
+  </si>
+  <si>
+    <t>Sprint Backlog : Sprint 3 25.4.2022 - 01.5.2022</t>
+  </si>
+  <si>
+    <t>User Story #6: Candidate can  edit and delete questions</t>
+  </si>
+  <si>
+    <t>New question table that has many to many relation with candidate table ( asnswer table to fix many to many)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create restful web service to handle crud with answer and question tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create jsp (candQues) where candidate can answer </t>
+  </si>
+  <si>
+    <t>Allow candidate to edit answers</t>
+  </si>
+  <si>
+    <t>Allow candidate to delete answers</t>
+  </si>
+  <si>
+    <t>Sprint 3 Week 17</t>
+  </si>
+  <si>
+    <t>Sprint 4 Week 18</t>
+  </si>
+  <si>
+    <t>Sprint 5 Week 19</t>
+  </si>
+  <si>
+    <t>Date: 25.4.2022</t>
+  </si>
+  <si>
+    <t>User Story #7: Admin can add, edit and delete questions</t>
+  </si>
+  <si>
+    <t>User Story #9:</t>
   </si>
 </sst>
 </file>
@@ -3566,7 +3597,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4286,7 +4317,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4377,7 +4408,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4387,13 +4418,19 @@
       <c r="A9" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4401,7 +4438,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -4417,7 +4454,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4425,7 +4462,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4441,7 +4478,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4486,7 +4523,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="76" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
@@ -4509,31 +4546,31 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="F2" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="G2" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="H2" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="I2" s="43" t="s">
         <v>79</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>82</v>
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
@@ -4548,14 +4585,14 @@
     </row>
     <row r="3" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
@@ -4575,14 +4612,14 @@
     </row>
     <row r="4" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
@@ -4602,14 +4639,14 @@
     </row>
     <row r="5" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
@@ -4629,7 +4666,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" s="37">
         <v>5</v>
@@ -4654,14 +4691,14 @@
     </row>
     <row r="7" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="47"/>
@@ -4681,14 +4718,14 @@
     </row>
     <row r="8" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="47"/>
@@ -4708,14 +4745,14 @@
     </row>
     <row r="9" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="47"/>
@@ -4735,14 +4772,14 @@
     </row>
     <row r="10" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
@@ -4762,14 +4799,14 @@
     </row>
     <row r="11" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="47"/>
@@ -4789,14 +4826,14 @@
     </row>
     <row r="12" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -4816,14 +4853,14 @@
     </row>
     <row r="13" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
@@ -4843,7 +4880,7 @@
     </row>
     <row r="14" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B14" s="37">
         <v>6</v>
@@ -4868,14 +4905,14 @@
     </row>
     <row r="15" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="47" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
@@ -4895,14 +4932,14 @@
     </row>
     <row r="16" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="47" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
@@ -4922,14 +4959,14 @@
     </row>
     <row r="17" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="47" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
@@ -4949,14 +4986,14 @@
     </row>
     <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="47" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="47"/>
@@ -4976,7 +5013,7 @@
     </row>
     <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" s="37">
         <v>6</v>
@@ -5001,14 +5038,14 @@
     </row>
     <row r="20" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
@@ -5028,14 +5065,14 @@
     </row>
     <row r="21" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
@@ -5062,7 +5099,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
@@ -5082,14 +5119,14 @@
     </row>
     <row r="23" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="47" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
@@ -5109,7 +5146,7 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B24" s="37">
         <v>6</v>
@@ -5134,14 +5171,14 @@
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" s="51"/>
       <c r="C25" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
@@ -5161,14 +5198,14 @@
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B26" s="51"/>
       <c r="C26" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
@@ -5188,14 +5225,14 @@
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B27" s="51"/>
       <c r="C27" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47"/>
@@ -5215,14 +5252,14 @@
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B28" s="51"/>
       <c r="C28" s="52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
@@ -5242,14 +5279,14 @@
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B29" s="51"/>
       <c r="C29" s="52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47"/>
@@ -5269,14 +5306,14 @@
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B30" s="51"/>
       <c r="C30" s="52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
@@ -5296,14 +5333,14 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B31" s="51"/>
       <c r="C31" s="52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
@@ -5323,14 +5360,14 @@
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B32" s="51"/>
       <c r="C32" s="52" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
@@ -5350,14 +5387,14 @@
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B33" s="51"/>
       <c r="C33" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47"/>
@@ -5377,14 +5414,14 @@
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B34" s="51"/>
       <c r="C34" s="52" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="47"/>
@@ -5404,14 +5441,14 @@
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
@@ -5431,14 +5468,14 @@
     </row>
     <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B36" s="51"/>
       <c r="C36" s="52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E36" s="47"/>
       <c r="F36" s="47"/>
@@ -5458,14 +5495,14 @@
     </row>
     <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B37" s="51"/>
       <c r="C37" s="52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="47"/>
@@ -5485,14 +5522,14 @@
     </row>
     <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B38" s="51"/>
       <c r="C38" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="47"/>
@@ -5512,14 +5549,14 @@
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="47"/>
@@ -5539,14 +5576,14 @@
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B40" s="51"/>
       <c r="C40" s="47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="47"/>
@@ -5566,14 +5603,14 @@
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="47" t="s">
         <v>61</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E41" s="47"/>
       <c r="F41" s="47"/>
@@ -5593,14 +5630,14 @@
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E42" s="47"/>
       <c r="F42" s="47"/>
@@ -5620,7 +5657,7 @@
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B43" s="37">
         <v>6</v>
@@ -5645,12 +5682,12 @@
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B44" s="47"/>
       <c r="C44" s="51"/>
       <c r="D44" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E44" s="47"/>
       <c r="F44" s="47"/>
@@ -5670,12 +5707,12 @@
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B45" s="47"/>
       <c r="C45" s="51"/>
       <c r="D45" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="47"/>
@@ -5695,12 +5732,12 @@
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B46" s="47"/>
       <c r="C46" s="51"/>
       <c r="D46" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E46" s="47"/>
       <c r="F46" s="47"/>
@@ -5720,12 +5757,12 @@
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B47" s="47"/>
       <c r="C47" s="51"/>
       <c r="D47" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="47"/>
@@ -5745,12 +5782,12 @@
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B48" s="47"/>
       <c r="C48" s="51"/>
       <c r="D48" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="47"/>
@@ -5770,12 +5807,12 @@
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B49" s="47"/>
       <c r="C49" s="51"/>
       <c r="D49" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="47"/>
@@ -5900,7 +5937,7 @@
     </row>
     <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B55" s="54">
         <f>SUM(B3:B54)</f>
@@ -5952,7 +5989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B586DF3-05CE-45CD-BBBF-F44EAB136942}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -5964,7 +6001,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="78" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -5987,31 +6024,31 @@
     </row>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="E2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -6026,7 +6063,7 @@
     </row>
     <row r="3" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" s="11">
         <v>6</v>
@@ -6051,11 +6088,11 @@
     </row>
     <row r="4" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="13"/>
@@ -6076,14 +6113,14 @@
     </row>
     <row r="5" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -6103,14 +6140,14 @@
     </row>
     <row r="6" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="47" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -6130,14 +6167,14 @@
     </row>
     <row r="7" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="47" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -6157,13 +6194,13 @@
     </row>
     <row r="8" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="14"/>
@@ -6179,14 +6216,14 @@
     </row>
     <row r="9" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="47" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -6206,14 +6243,14 @@
     </row>
     <row r="10" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -6233,14 +6270,14 @@
     </row>
     <row r="11" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -6260,14 +6297,14 @@
     </row>
     <row r="12" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -6287,14 +6324,14 @@
     </row>
     <row r="13" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -6335,7 +6372,7 @@
     </row>
     <row r="15" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -6505,7 +6542,7 @@
     </row>
     <row r="23" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -6675,7 +6712,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -6845,7 +6882,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -6888,4 +6925,894 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106689C9-A0BB-4B82-90C0-E17CAF16FC55}">
+  <dimension ref="A1:S39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="105.5" customWidth="1"/>
+    <col min="2" max="9" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+    </row>
+    <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9">
+        <f>SUM(E4:E38)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="9">
+        <f>SUM(F3:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
+        <f>SUM(G3:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <f>SUM(H3:H38)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
+        <f>SUM(I3:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/team6Scrum.xlsx
+++ b/team6Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyDevice\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hameenamk-my.sharepoint.com/personal/basil20001_student_hamk_fi/Documents/Tietojenkäsittely/2022/WebServices(PenttiOjaniemi)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFB5D00-5B16-4383-ADE2-85B692247430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{EBFB5D00-5B16-4383-ADE2-85B692247430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32F83436-C5B9-4151-8AD9-E978275DB0F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="663" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="835" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="168">
   <si>
     <t xml:space="preserve">Election Machine </t>
   </si>
@@ -494,9 +494,6 @@
     <t>Sessions and cookies for admins and candidates</t>
   </si>
   <si>
-    <t>Sprint Backlog : Sprint 3 25.4.2022 - 01.5.2022</t>
-  </si>
-  <si>
     <t>User Story #6: Candidate can  edit and delete questions</t>
   </si>
   <si>
@@ -531,6 +528,21 @@
   </si>
   <si>
     <t>User Story #9:</t>
+  </si>
+  <si>
+    <t>Modify web.xml and pom.xml to include correct depencies.</t>
+  </si>
+  <si>
+    <t>Create presistence.xml to connecto to database</t>
+  </si>
+  <si>
+    <t>create questions and answer models (data)</t>
+  </si>
+  <si>
+    <t>Allow candidates to add answers</t>
+  </si>
+  <si>
+    <t>Sprint Backlog : Sprint 3 25.4.2022 - 06.5.2022</t>
   </si>
 </sst>
 </file>
@@ -768,7 +780,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,6 +862,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,7 +1025,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1176,6 +1194,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2021,8 +2040,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11651875" y="437028"/>
-          <a:ext cx="6042213" cy="2474262"/>
+          <a:off x="11647393" y="441510"/>
+          <a:ext cx="5968254" cy="2411510"/>
           <a:chOff x="7360022" y="3922058"/>
           <a:chExt cx="6042213" cy="2586321"/>
         </a:xfrm>
@@ -3479,7 +3498,7 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3494,9 +3513,9 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="31" t="s">
@@ -3507,7 +3526,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
@@ -3518,7 +3537,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
@@ -3529,7 +3548,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="6" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C6" s="72" t="s">
         <v>3</v>
       </c>
@@ -3538,7 +3557,7 @@
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
     </row>
-    <row r="7" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
         <v>4</v>
@@ -3547,7 +3566,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
         <v>5</v>
@@ -3556,7 +3575,7 @@
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
         <v>6</v>
@@ -3565,7 +3584,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
         <v>7</v>
@@ -3574,7 +3593,7 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
         <v>8</v>
@@ -3600,16 +3619,16 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="112.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="22.75" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="112.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="74" t="s">
         <v>9</v>
       </c>
@@ -3617,7 +3636,7 @@
       <c r="C1" s="74"/>
       <c r="D1" s="74"/>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3628,7 +3647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3639,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3650,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
@@ -3661,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
@@ -3672,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -3683,7 +3702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -3694,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
@@ -3705,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3716,7 +3735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3727,7 +3746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
@@ -3738,7 +3757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3749,62 +3768,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="I17" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="I19" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="I20" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="I21" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
     </row>
-    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="H24" s="18"/>
@@ -3813,171 +3832,171 @@
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
     </row>
@@ -4015,23 +4034,23 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="112.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C1" s="75" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="75"/>
     </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
     </row>
-    <row r="3" spans="3:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" ht="25.8" x14ac:dyDescent="0.3">
       <c r="C3" s="20" t="s">
         <v>29</v>
       </c>
@@ -4039,17 +4058,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" s="33"/>
       <c r="D5" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="33" t="s">
         <v>13</v>
       </c>
@@ -4057,27 +4076,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="33"/>
       <c r="D7" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="34"/>
       <c r="D10" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="34" t="s">
         <v>14</v>
       </c>
@@ -4085,27 +4104,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="34"/>
       <c r="D12" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" s="32" t="s">
         <v>15</v>
       </c>
@@ -4113,21 +4132,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="34"/>
       <c r="D19" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="34" t="s">
         <v>16</v>
       </c>
@@ -4135,21 +4154,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
@@ -4157,29 +4176,29 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="33"/>
       <c r="D28" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" s="33" t="s">
         <v>18</v>
       </c>
@@ -4187,23 +4206,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" s="33"/>
       <c r="D30" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" s="34"/>
       <c r="D32" s="34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="34" t="s">
         <v>19</v>
       </c>
@@ -4211,41 +4230,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="32"/>
       <c r="D36" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="32"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="33"/>
       <c r="D40" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="33" t="s">
         <v>21</v>
       </c>
@@ -4253,51 +4272,51 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="34"/>
       <c r="D44" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="34"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="32"/>
       <c r="D48" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="32"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
     </row>
@@ -4320,16 +4339,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="24.09765625" customWidth="1"/>
+    <col min="2" max="2" width="29.09765625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="26.69921875" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
@@ -4337,7 +4356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
@@ -4351,7 +4370,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>62</v>
       </c>
@@ -4368,7 +4387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>65</v>
       </c>
@@ -4376,7 +4395,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>66</v>
       </c>
@@ -4384,7 +4403,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>62</v>
       </c>
@@ -4398,7 +4417,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>68</v>
       </c>
@@ -4406,15 +4425,15 @@
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>62</v>
       </c>
@@ -4428,23 +4447,23 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
@@ -4452,7 +4471,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>69</v>
       </c>
@@ -4460,15 +4479,15 @@
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>62</v>
       </c>
@@ -4476,7 +4495,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>69</v>
       </c>
@@ -4484,13 +4503,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4509,19 +4528,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6088DA-74CF-4F3C-ACDE-C67EABB84574}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="149.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="149.19921875" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="16.5" style="38" customWidth="1"/>
     <col min="10" max="10" width="9" style="38" customWidth="1"/>
     <col min="11" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="76" t="s">
         <v>70</v>
       </c>
@@ -4544,7 +4563,7 @@
       <c r="R1" s="77"/>
       <c r="S1" s="77"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>71</v>
       </c>
@@ -4583,7 +4602,7 @@
       <c r="R2" s="39"/>
       <c r="S2" s="39"/>
     </row>
-    <row r="3" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
         <v>80</v>
       </c>
@@ -4610,7 +4629,7 @@
       <c r="R3" s="40"/>
       <c r="S3" s="40"/>
     </row>
-    <row r="4" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
         <v>83</v>
       </c>
@@ -4637,7 +4656,7 @@
       <c r="R4" s="40"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
         <v>84</v>
       </c>
@@ -4664,7 +4683,7 @@
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>85</v>
       </c>
@@ -4689,7 +4708,7 @@
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
     </row>
-    <row r="7" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>86</v>
       </c>
@@ -4716,7 +4735,7 @@
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>88</v>
       </c>
@@ -4743,7 +4762,7 @@
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
     </row>
-    <row r="9" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>89</v>
       </c>
@@ -4770,7 +4789,7 @@
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
     </row>
-    <row r="10" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>90</v>
       </c>
@@ -4797,7 +4816,7 @@
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
     </row>
-    <row r="11" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>91</v>
       </c>
@@ -4824,7 +4843,7 @@
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
     </row>
-    <row r="12" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>92</v>
       </c>
@@ -4851,7 +4870,7 @@
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
     </row>
-    <row r="13" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>93</v>
       </c>
@@ -4878,7 +4897,7 @@
       <c r="R13" s="39"/>
       <c r="S13" s="39"/>
     </row>
-    <row r="14" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
         <v>94</v>
       </c>
@@ -4903,7 +4922,7 @@
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
     </row>
-    <row r="15" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
         <v>95</v>
       </c>
@@ -4930,7 +4949,7 @@
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
     </row>
-    <row r="16" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
         <v>89</v>
       </c>
@@ -4957,7 +4976,7 @@
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
     </row>
-    <row r="17" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
         <v>96</v>
       </c>
@@ -4984,7 +5003,7 @@
       <c r="R17" s="39"/>
       <c r="S17" s="39"/>
     </row>
-    <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>97</v>
       </c>
@@ -5011,7 +5030,7 @@
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
     </row>
-    <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
         <v>98</v>
       </c>
@@ -5036,7 +5055,7 @@
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
     </row>
-    <row r="20" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="62" t="s">
         <v>99</v>
       </c>
@@ -5063,7 +5082,7 @@
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
     </row>
-    <row r="21" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="62" t="s">
         <v>101</v>
       </c>
@@ -5090,7 +5109,7 @@
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
     </row>
-    <row r="22" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="65" t="s">
         <v>33</v>
       </c>
@@ -5117,7 +5136,7 @@
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
     </row>
-    <row r="23" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="s">
         <v>103</v>
       </c>
@@ -5144,7 +5163,7 @@
       <c r="R23" s="39"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>104</v>
       </c>
@@ -5169,7 +5188,7 @@
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
         <v>105</v>
       </c>
@@ -5196,7 +5215,7 @@
       <c r="R25" s="39"/>
       <c r="S25" s="39"/>
     </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="60" t="s">
         <v>106</v>
       </c>
@@ -5223,7 +5242,7 @@
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="61" t="s">
         <v>107</v>
       </c>
@@ -5250,7 +5269,7 @@
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
     </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
         <v>108</v>
       </c>
@@ -5277,7 +5296,7 @@
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
         <v>109</v>
       </c>
@@ -5304,7 +5323,7 @@
       <c r="R29" s="39"/>
       <c r="S29" s="39"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="61" t="s">
         <v>110</v>
       </c>
@@ -5331,7 +5350,7 @@
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>111</v>
       </c>
@@ -5358,7 +5377,7 @@
       <c r="R31" s="39"/>
       <c r="S31" s="39"/>
     </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>112</v>
       </c>
@@ -5385,7 +5404,7 @@
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
     </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
         <v>113</v>
       </c>
@@ -5412,7 +5431,7 @@
       <c r="R33" s="39"/>
       <c r="S33" s="39"/>
     </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="61" t="s">
         <v>114</v>
       </c>
@@ -5439,7 +5458,7 @@
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
     </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
         <v>115</v>
       </c>
@@ -5466,7 +5485,7 @@
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="61" t="s">
         <v>116</v>
       </c>
@@ -5493,7 +5512,7 @@
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
     </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>117</v>
       </c>
@@ -5520,7 +5539,7 @@
       <c r="R37" s="39"/>
       <c r="S37" s="39"/>
     </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
         <v>118</v>
       </c>
@@ -5547,7 +5566,7 @@
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="61" t="s">
         <v>119</v>
       </c>
@@ -5993,13 +6012,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="105.5" customWidth="1"/>
-    <col min="2" max="9" width="11.25" customWidth="1"/>
+    <col min="2" max="9" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="78" t="s">
         <v>132</v>
       </c>
@@ -6022,7 +6041,7 @@
       <c r="R1" s="79"/>
       <c r="S1" s="79"/>
     </row>
-    <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>71</v>
       </c>
@@ -6061,7 +6080,7 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>138</v>
       </c>
@@ -6086,7 +6105,7 @@
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>126</v>
       </c>
@@ -6111,7 +6130,7 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
         <v>146</v>
       </c>
@@ -6138,7 +6157,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>139</v>
       </c>
@@ -6165,7 +6184,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>140</v>
       </c>
@@ -6192,7 +6211,7 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
         <v>147</v>
       </c>
@@ -6214,7 +6233,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
         <v>141</v>
       </c>
@@ -6241,7 +6260,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="68" t="s">
         <v>142</v>
       </c>
@@ -6268,7 +6287,7 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
         <v>148</v>
       </c>
@@ -6295,7 +6314,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68" t="s">
         <v>149</v>
       </c>
@@ -6322,7 +6341,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="68" t="s">
         <v>150</v>
       </c>
@@ -6349,7 +6368,7 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -6370,7 +6389,7 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>143</v>
       </c>
@@ -6393,7 +6412,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -6414,7 +6433,7 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -6435,7 +6454,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -6456,7 +6475,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -6477,7 +6496,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -6498,7 +6517,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -6519,7 +6538,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -6540,7 +6559,7 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>144</v>
       </c>
@@ -6563,7 +6582,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -6584,7 +6603,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -6605,7 +6624,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -6626,7 +6645,7 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -6647,7 +6666,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -6668,7 +6687,7 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -6689,7 +6708,7 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -6710,7 +6729,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>145</v>
       </c>
@@ -6733,7 +6752,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -6754,7 +6773,7 @@
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -6775,7 +6794,7 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -6796,7 +6815,7 @@
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -6817,7 +6836,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -6838,7 +6857,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -6859,7 +6878,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -6880,7 +6899,7 @@
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>131</v>
       </c>
@@ -6932,18 +6951,18 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="105.5" customWidth="1"/>
-    <col min="2" max="9" width="11.25" customWidth="1"/>
+    <col min="2" max="9" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="78" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -6964,7 +6983,7 @@
       <c r="R1" s="79"/>
       <c r="S1" s="79"/>
     </row>
-    <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>71</v>
       </c>
@@ -7003,9 +7022,9 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -7026,9 +7045,9 @@
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>153</v>
+    <row r="4" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="80" t="s">
+        <v>152</v>
       </c>
       <c r="B4" s="13">
         <v>2</v>
@@ -7036,7 +7055,9 @@
       <c r="C4" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="47" t="s">
+        <v>82</v>
+      </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -7053,13 +7074,17 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>154</v>
+    <row r="5" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>153</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
+      <c r="C5" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>82</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -7076,13 +7101,17 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>155</v>
+    <row r="6" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
+        <v>154</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>82</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -7099,13 +7128,17 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>156</v>
+    <row r="7" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="80" t="s">
+        <v>155</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>82</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -7122,12 +7155,16 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+    <row r="8" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>82</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -7140,10 +7177,17 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="80" t="s">
+        <v>163</v>
+      </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="C9" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>82</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -7160,10 +7204,17 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="80" t="s">
+        <v>164</v>
+      </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -7180,10 +7231,17 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="80" t="s">
+        <v>165</v>
+      </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -7200,10 +7258,17 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="80" t="s">
+        <v>166</v>
+      </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -7220,7 +7285,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -7240,7 +7305,7 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -7260,9 +7325,9 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -7283,7 +7348,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -7304,7 +7369,7 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -7325,7 +7390,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -7346,7 +7411,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -7367,7 +7432,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -7388,7 +7453,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -7409,7 +7474,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7430,7 +7495,7 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>145</v>
       </c>
@@ -7453,7 +7518,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -7474,7 +7539,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -7495,7 +7560,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -7516,7 +7581,7 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -7537,7 +7602,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -7558,7 +7623,7 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -7579,7 +7644,7 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -7600,9 +7665,9 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -7623,7 +7688,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -7644,7 +7709,7 @@
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -7665,7 +7730,7 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -7686,7 +7751,7 @@
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -7707,7 +7772,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -7728,7 +7793,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -7749,7 +7814,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -7770,7 +7835,7 @@
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>131</v>
       </c>

--- a/team6Scrum.xlsx
+++ b/team6Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hameenamk-my.sharepoint.com/personal/basil20001_student_hamk_fi/Documents/Tietojenkäsittely/2022/WebServices(PenttiOjaniemi)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\Team6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{EBFB5D00-5B16-4383-ADE2-85B692247430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32F83436-C5B9-4151-8AD9-E978275DB0F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8D7344-C2A8-4013-9B99-6D786B6A964E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="835" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="835" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="7" r:id="rId1"/>
@@ -1174,6 +1174,7 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1194,7 +1195,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2040,8 +2040,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11647393" y="441510"/>
-          <a:ext cx="5968254" cy="2411510"/>
+          <a:off x="11651875" y="437028"/>
+          <a:ext cx="6042213" cy="2474262"/>
           <a:chOff x="7360022" y="3922058"/>
           <a:chExt cx="6042213" cy="2586321"/>
         </a:xfrm>
@@ -3498,7 +3498,7 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3513,9 +3513,9 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="31" t="s">
@@ -3526,7 +3526,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
@@ -3537,7 +3537,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
@@ -3548,16 +3548,16 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="6" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C6" s="72" t="s">
+    <row r="6" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-    </row>
-    <row r="7" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
         <v>4</v>
@@ -3566,7 +3566,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
         <v>5</v>
@@ -3575,7 +3575,7 @@
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
         <v>6</v>
@@ -3584,7 +3584,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
         <v>7</v>
@@ -3593,7 +3593,7 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
         <v>8</v>
@@ -3619,24 +3619,24 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="112.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" customWidth="1"/>
-    <col min="4" max="4" width="22.69921875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="112.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="22.75" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-    </row>
-    <row r="2" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3768,62 +3768,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="I17" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="I19" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="I20" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="I21" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-    </row>
-    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+    </row>
+    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="H24" s="18"/>
@@ -3832,171 +3832,171 @@
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
     </row>
@@ -4034,23 +4034,23 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="112.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C1" s="75" t="s">
+    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="75"/>
-    </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-    </row>
-    <row r="3" spans="3:4" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="D1" s="76"/>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+    </row>
+    <row r="3" spans="3:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
         <v>29</v>
       </c>
@@ -4058,17 +4058,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="33"/>
       <c r="D5" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="33" t="s">
         <v>13</v>
       </c>
@@ -4076,27 +4076,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="33"/>
       <c r="D7" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="34"/>
       <c r="D10" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="34" t="s">
         <v>14</v>
       </c>
@@ -4104,27 +4104,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="34"/>
       <c r="D12" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="32" t="s">
         <v>15</v>
       </c>
@@ -4132,21 +4132,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="34"/>
       <c r="D19" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="34" t="s">
         <v>16</v>
       </c>
@@ -4154,21 +4154,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
@@ -4176,29 +4176,29 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="33"/>
       <c r="D28" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="33" t="s">
         <v>18</v>
       </c>
@@ -4206,23 +4206,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="33"/>
       <c r="D30" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="34"/>
       <c r="D32" s="34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="34" t="s">
         <v>19</v>
       </c>
@@ -4230,41 +4230,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="32"/>
       <c r="D36" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="32"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="33"/>
       <c r="D40" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="33" t="s">
         <v>21</v>
       </c>
@@ -4272,51 +4272,51 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="34"/>
       <c r="D44" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="34"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="32"/>
       <c r="D48" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="32"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
     </row>
@@ -4339,16 +4339,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.09765625" customWidth="1"/>
-    <col min="2" max="2" width="29.09765625" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="26.69921875" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>62</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>65</v>
       </c>
@@ -4395,7 +4395,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>66</v>
       </c>
@@ -4403,7 +4403,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>62</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>68</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>157</v>
       </c>
@@ -4433,7 +4433,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>62</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>160</v>
       </c>
@@ -4455,7 +4455,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>158</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
@@ -4471,7 +4471,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>69</v>
       </c>
@@ -4479,7 +4479,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>159</v>
       </c>
@@ -4487,7 +4487,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>62</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>69</v>
       </c>
@@ -4503,13 +4503,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4532,38 +4532,38 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="149.19921875" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="149.25" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="16.5" style="38" customWidth="1"/>
     <col min="10" max="10" width="9" style="38" customWidth="1"/>
     <col min="11" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>71</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="R2" s="39"/>
       <c r="S2" s="39"/>
     </row>
-    <row r="3" spans="1:19" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>80</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="R3" s="40"/>
       <c r="S3" s="40"/>
     </row>
-    <row r="4" spans="1:19" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>83</v>
       </c>
@@ -4656,7 +4656,7 @@
       <c r="R4" s="40"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>84</v>
       </c>
@@ -4683,7 +4683,7 @@
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>85</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
     </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>86</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>88</v>
       </c>
@@ -4762,7 +4762,7 @@
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
     </row>
-    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>89</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
     </row>
-    <row r="10" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>90</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
     </row>
-    <row r="11" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>91</v>
       </c>
@@ -4843,7 +4843,7 @@
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
     </row>
-    <row r="12" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>92</v>
       </c>
@@ -4870,7 +4870,7 @@
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
     </row>
-    <row r="13" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
         <v>93</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="R13" s="39"/>
       <c r="S13" s="39"/>
     </row>
-    <row r="14" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>94</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
     </row>
-    <row r="15" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>95</v>
       </c>
@@ -4949,7 +4949,7 @@
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
     </row>
-    <row r="16" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>89</v>
       </c>
@@ -4976,7 +4976,7 @@
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
     </row>
-    <row r="17" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>96</v>
       </c>
@@ -5003,7 +5003,7 @@
       <c r="R17" s="39"/>
       <c r="S17" s="39"/>
     </row>
-    <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
         <v>97</v>
       </c>
@@ -5030,7 +5030,7 @@
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
     </row>
-    <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>98</v>
       </c>
@@ -5055,7 +5055,7 @@
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
     </row>
-    <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>99</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
     </row>
-    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>101</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
     </row>
-    <row r="22" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
         <v>33</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
     </row>
-    <row r="23" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="s">
         <v>103</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="R23" s="39"/>
       <c r="S23" s="39"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>104</v>
       </c>
@@ -5188,7 +5188,7 @@
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>105</v>
       </c>
@@ -5215,7 +5215,7 @@
       <c r="R25" s="39"/>
       <c r="S25" s="39"/>
     </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
         <v>106</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>107</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
     </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>108</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>109</v>
       </c>
@@ -5323,7 +5323,7 @@
       <c r="R29" s="39"/>
       <c r="S29" s="39"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>110</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>111</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="R31" s="39"/>
       <c r="S31" s="39"/>
     </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>112</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
     </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>113</v>
       </c>
@@ -5431,7 +5431,7 @@
       <c r="R33" s="39"/>
       <c r="S33" s="39"/>
     </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>114</v>
       </c>
@@ -5458,7 +5458,7 @@
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
     </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>115</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>116</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
     </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>117</v>
       </c>
@@ -5539,7 +5539,7 @@
       <c r="R37" s="39"/>
       <c r="S37" s="39"/>
     </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>118</v>
       </c>
@@ -5566,7 +5566,7 @@
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>119</v>
       </c>
@@ -6012,36 +6012,36 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105.5" customWidth="1"/>
-    <col min="2" max="9" width="11.19921875" customWidth="1"/>
+    <col min="2" max="9" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-    </row>
-    <row r="2" spans="1:19" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+    </row>
+    <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>71</v>
       </c>
@@ -6080,7 +6080,7 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>138</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>126</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>146</v>
       </c>
@@ -6157,7 +6157,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>139</v>
       </c>
@@ -6184,7 +6184,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>140</v>
       </c>
@@ -6211,7 +6211,7 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>147</v>
       </c>
@@ -6233,7 +6233,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>141</v>
       </c>
@@ -6260,7 +6260,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68" t="s">
         <v>142</v>
       </c>
@@ -6287,7 +6287,7 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
         <v>148</v>
       </c>
@@ -6314,7 +6314,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
         <v>149</v>
       </c>
@@ -6341,7 +6341,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68" t="s">
         <v>150</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -6389,7 +6389,7 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>143</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -6433,7 +6433,7 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -6454,7 +6454,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -6475,7 +6475,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -6496,7 +6496,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -6517,7 +6517,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -6538,7 +6538,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -6559,7 +6559,7 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>144</v>
       </c>
@@ -6582,7 +6582,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -6603,7 +6603,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -6624,7 +6624,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -6645,7 +6645,7 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -6666,7 +6666,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -6687,7 +6687,7 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -6708,7 +6708,7 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -6729,7 +6729,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>145</v>
       </c>
@@ -6752,7 +6752,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -6773,7 +6773,7 @@
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -6794,7 +6794,7 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -6815,7 +6815,7 @@
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -6836,7 +6836,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -6857,7 +6857,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -6878,7 +6878,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -6899,7 +6899,7 @@
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>131</v>
       </c>
@@ -6951,39 +6951,39 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105.5" customWidth="1"/>
-    <col min="2" max="9" width="11.19921875" customWidth="1"/>
+    <col min="2" max="9" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-    </row>
-    <row r="2" spans="1:19" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+    </row>
+    <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>71</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>151</v>
       </c>
@@ -7045,8 +7045,8 @@
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+    <row r="4" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="13">
@@ -7074,8 +7074,8 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+    <row r="5" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="13"/>
@@ -7101,8 +7101,8 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+    <row r="6" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="13"/>
@@ -7128,8 +7128,8 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
+    <row r="7" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="13"/>
@@ -7155,8 +7155,8 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+    <row r="8" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="49" t="s">
@@ -7177,8 +7177,8 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
+    <row r="9" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
         <v>163</v>
       </c>
       <c r="B9" s="13"/>
@@ -7204,8 +7204,8 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80" t="s">
+    <row r="10" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
         <v>164</v>
       </c>
       <c r="B10" s="13"/>
@@ -7231,8 +7231,8 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+    <row r="11" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
         <v>165</v>
       </c>
       <c r="B11" s="13"/>
@@ -7258,8 +7258,8 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+    <row r="12" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
         <v>166</v>
       </c>
       <c r="B12" s="13"/>
@@ -7267,7 +7267,7 @@
         <v>87</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -7285,7 +7285,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -7305,7 +7305,7 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -7325,7 +7325,7 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>161</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -7369,7 +7369,7 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -7390,7 +7390,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -7411,7 +7411,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -7432,7 +7432,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -7453,7 +7453,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -7474,7 +7474,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7495,7 +7495,7 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>145</v>
       </c>
@@ -7518,7 +7518,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -7539,7 +7539,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -7560,7 +7560,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -7581,7 +7581,7 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -7602,7 +7602,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -7623,7 +7623,7 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -7644,7 +7644,7 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -7665,7 +7665,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>162</v>
       </c>
@@ -7688,7 +7688,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -7709,7 +7709,7 @@
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -7730,7 +7730,7 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -7751,7 +7751,7 @@
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -7772,7 +7772,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -7793,7 +7793,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -7814,7 +7814,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -7835,7 +7835,7 @@
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>131</v>
       </c>
